--- a/StreamLine App Automator/tests/android_calculator_test.xlsx
+++ b/StreamLine App Automator/tests/android_calculator_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\StreamLine App Automator\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09D1D9B-1AD9-46DA-8EFE-B069480177AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542E3CCB-8B7F-40D9-9D18-C1883A59CDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,8 +596,10 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StreamLine App Automator/tests/android_calculator_test.xlsx
+++ b/StreamLine App Automator/tests/android_calculator_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\StreamLine App Automator\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542E3CCB-8B7F-40D9-9D18-C1883A59CDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412D045B-8FC3-46AA-86DC-FD2560BF9FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Admin</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{57B6992A-EBD2-4E57-9623-C006D5713514}">
@@ -70,11 +71,37 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Enter an action / keyword from actions/keywords dictionary. Don't leave this cell blank</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E776C227-C034-4100-BE66-73E85A1FC0B8}">
+          <t>Enter a keyword from keywords dictionary. Don't leave this cell blank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{C43DE36E-EDF2-4383-81B0-0153EAB047E0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the keyword requires an input, type it here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{FF34C5B9-98C0-4BC9-A842-41ABAE578F4C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the keyword requires an operation, type it here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E776C227-C034-4100-BE66-73E85A1FC0B8}">
       <text>
         <r>
           <rPr>
@@ -87,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2EE3976A-CD89-4EB6-880A-8E3351828149}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2EE3976A-CD89-4EB6-880A-8E3351828149}">
       <text>
         <r>
           <rPr>
@@ -100,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{04890030-98B4-4BFA-8A38-56969D5F6C99}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{04890030-98B4-4BFA-8A38-56969D5F6C99}">
       <text>
         <r>
           <rPr>
@@ -113,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{77F70CC2-CD32-4862-BA27-6BD07C966BFE}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{77F70CC2-CD32-4862-BA27-6BD07C966BFE}">
       <text>
         <r>
           <rPr>
@@ -126,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0CF1F3B2-C43F-40CC-A288-958C058836D0}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0CF1F3B2-C43F-40CC-A288-958C058836D0}">
       <text>
         <r>
           <rPr>
@@ -144,14 +171,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Element Name</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -209,14 +233,23 @@
     <t>R</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Operation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -246,6 +279,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -593,149 +632,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="6" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="5" width="17" customWidth="1"/>
+    <col min="8" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="str">
+        <f>M2</f>
+        <v>Seven</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>9</v>
       </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="str">
-        <f>J2</f>
-        <v>Seven</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B5" si="0">M3</f>
+        <v>Add Button</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B5" si="0">J3</f>
-        <v>Add Button</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>Three</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>Equals Button</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
